--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col5a3-Sdc3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col5a3-Sdc3.xlsx
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Col5a3</t>
+  </si>
+  <si>
+    <t>Sdc3</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Col5a3</t>
-  </si>
-  <si>
-    <t>Sdc3</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.384889</v>
+        <v>0.7648453333333333</v>
       </c>
       <c r="H2">
-        <v>4.154667</v>
+        <v>2.294536</v>
       </c>
       <c r="I2">
-        <v>0.02269344589565626</v>
+        <v>0.01601528062037666</v>
       </c>
       <c r="J2">
-        <v>0.0260653413805133</v>
+        <v>0.01734982808174237</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.68083366666667</v>
+        <v>26.23985166666667</v>
       </c>
       <c r="N2">
-        <v>83.042501</v>
+        <v>78.719555</v>
       </c>
       <c r="O2">
-        <v>0.1459618213622149</v>
+        <v>0.09560625159817936</v>
       </c>
       <c r="P2">
-        <v>0.1475036943464798</v>
+        <v>0.09631575414263932</v>
       </c>
       <c r="Q2">
-        <v>38.33488205579634</v>
+        <v>20.06942809460889</v>
       </c>
       <c r="R2">
-        <v>345.013938502167</v>
+        <v>180.62485285148</v>
       </c>
       <c r="S2">
-        <v>0.003312376695914868</v>
+        <v>0.001531160948407177</v>
       </c>
       <c r="T2">
-        <v>0.003844734148027886</v>
+        <v>0.001671061775938157</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.384889</v>
+        <v>0.7648453333333333</v>
       </c>
       <c r="H3">
-        <v>4.154667</v>
+        <v>2.294536</v>
       </c>
       <c r="I3">
-        <v>0.02269344589565626</v>
+        <v>0.01601528062037666</v>
       </c>
       <c r="J3">
-        <v>0.0260653413805133</v>
+        <v>0.01734982808174237</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>86.62195199999999</v>
       </c>
       <c r="O3">
-        <v>0.1522533369252734</v>
+        <v>0.1052038484825964</v>
       </c>
       <c r="P3">
-        <v>0.1538616705619625</v>
+        <v>0.1059845756519775</v>
       </c>
       <c r="Q3">
-        <v>39.98726282777599</v>
+        <v>22.08413191714133</v>
       </c>
       <c r="R3">
-        <v>359.885365449984</v>
+        <v>198.757187254272</v>
       </c>
       <c r="S3">
-        <v>0.003455152863946816</v>
+        <v>0.001684869155792369</v>
       </c>
       <c r="T3">
-        <v>0.004010456968573627</v>
+        <v>0.001838814166878228</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.384889</v>
+        <v>0.7648453333333333</v>
       </c>
       <c r="H4">
-        <v>4.154667</v>
+        <v>2.294536</v>
       </c>
       <c r="I4">
-        <v>0.02269344589565626</v>
+        <v>0.01601528062037666</v>
       </c>
       <c r="J4">
-        <v>0.0260653413805133</v>
+        <v>0.01734982808174237</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>67.08300833333332</v>
+        <v>108.455335</v>
       </c>
       <c r="N4">
-        <v>201.249025</v>
+        <v>325.366005</v>
       </c>
       <c r="O4">
-        <v>0.3537306064080358</v>
+        <v>0.3951626014085634</v>
       </c>
       <c r="P4">
-        <v>0.3574672524750558</v>
+        <v>0.3980951384183098</v>
       </c>
       <c r="Q4">
-        <v>92.90252032774166</v>
+        <v>82.95155684985332</v>
       </c>
       <c r="R4">
-        <v>836.122682949675</v>
+        <v>746.5640116486799</v>
       </c>
       <c r="S4">
-        <v>0.008027366378158441</v>
+        <v>0.006328639952236191</v>
       </c>
       <c r="T4">
-        <v>0.009317505968116467</v>
+        <v>0.006906882211735106</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.384889</v>
+        <v>0.7648453333333333</v>
       </c>
       <c r="H5">
-        <v>4.154667</v>
+        <v>2.294536</v>
       </c>
       <c r="I5">
-        <v>0.02269344589565626</v>
+        <v>0.01601528062037666</v>
       </c>
       <c r="J5">
-        <v>0.0260653413805133</v>
+        <v>0.01734982808174237</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.947122</v>
+        <v>6.0653095</v>
       </c>
       <c r="N5">
-        <v>11.894244</v>
+        <v>12.130619</v>
       </c>
       <c r="O5">
-        <v>0.03135934305434629</v>
+        <v>0.02209926768810472</v>
       </c>
       <c r="P5">
-        <v>0.02112707240667585</v>
+        <v>0.01484217888683478</v>
       </c>
       <c r="Q5">
-        <v>8.236103839458</v>
+        <v>4.639023666297333</v>
       </c>
       <c r="R5">
-        <v>49.416623036748</v>
+        <v>27.834141997784</v>
       </c>
       <c r="S5">
-        <v>0.0007116515549271316</v>
+        <v>0.0003539259735298196</v>
       </c>
       <c r="T5">
-        <v>0.0005506843546508287</v>
+        <v>0.0002575092520450497</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.384889</v>
+        <v>0.7648453333333333</v>
       </c>
       <c r="H6">
-        <v>4.154667</v>
+        <v>2.294536</v>
       </c>
       <c r="I6">
-        <v>0.02269344589565626</v>
+        <v>0.01601528062037666</v>
       </c>
       <c r="J6">
-        <v>0.0260653413805133</v>
+        <v>0.01734982808174237</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>60.05939466666666</v>
+        <v>104.823008</v>
       </c>
       <c r="N6">
-        <v>180.178184</v>
+        <v>314.469024</v>
       </c>
       <c r="O6">
-        <v>0.3166948922501296</v>
+        <v>0.3819280308225561</v>
       </c>
       <c r="P6">
-        <v>0.3200403102098262</v>
+        <v>0.3847623529002386</v>
       </c>
       <c r="Q6">
-        <v>83.17559502052534</v>
+        <v>80.17338849476266</v>
       </c>
       <c r="R6">
-        <v>748.580355184728</v>
+        <v>721.560496452864</v>
       </c>
       <c r="S6">
-        <v>0.007186898402709007</v>
+        <v>0.006116684590411103</v>
       </c>
       <c r="T6">
-        <v>0.008341959941144495</v>
+        <v>0.006675560675145826</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>35.92279633333334</v>
+        <v>35.92279633333333</v>
       </c>
       <c r="H7">
         <v>107.768389</v>
       </c>
       <c r="I7">
-        <v>0.5886479241377319</v>
+        <v>0.7521960831474918</v>
       </c>
       <c r="J7">
-        <v>0.6761119120528684</v>
+        <v>0.8148763069293031</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.68083366666667</v>
+        <v>26.23985166666667</v>
       </c>
       <c r="N7">
-        <v>83.042501</v>
+        <v>78.719555</v>
       </c>
       <c r="O7">
-        <v>0.1459618213622149</v>
+        <v>0.09560625159817936</v>
       </c>
       <c r="P7">
-        <v>0.1475036943464798</v>
+        <v>0.09631575414263932</v>
       </c>
       <c r="Q7">
-        <v>994.3729501445434</v>
+        <v>942.6088472385438</v>
       </c>
       <c r="R7">
-        <v>8949.356551300891</v>
+        <v>8483.479625146894</v>
       </c>
       <c r="S7">
-        <v>0.08592012314823025</v>
+        <v>0.07191464797656413</v>
       </c>
       <c r="T7">
-        <v>0.09972900481946033</v>
+        <v>0.07848542603486466</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>35.92279633333334</v>
+        <v>35.92279633333333</v>
       </c>
       <c r="H8">
         <v>107.768389</v>
       </c>
       <c r="I8">
-        <v>0.5886479241377319</v>
+        <v>0.7521960831474918</v>
       </c>
       <c r="J8">
-        <v>0.6761119120528684</v>
+        <v>0.8148763069293031</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>86.62195199999999</v>
       </c>
       <c r="O8">
-        <v>0.1522533369252734</v>
+        <v>0.1052038484825964</v>
       </c>
       <c r="P8">
-        <v>0.1538616705619625</v>
+        <v>0.1059845756519775</v>
       </c>
       <c r="Q8">
         <v>1037.234246563925</v>
@@ -948,10 +948,10 @@
         <v>9335.108219075328</v>
       </c>
       <c r="S8">
-        <v>0.08962361072410487</v>
+        <v>0.07913392276065122</v>
       </c>
       <c r="T8">
-        <v>0.104027708275297</v>
+        <v>0.08636431959875276</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>35.92279633333334</v>
+        <v>35.92279633333333</v>
       </c>
       <c r="H9">
         <v>107.768389</v>
       </c>
       <c r="I9">
-        <v>0.5886479241377319</v>
+        <v>0.7521960831474918</v>
       </c>
       <c r="J9">
-        <v>0.6761119120528684</v>
+        <v>0.8148763069293031</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>67.08300833333332</v>
+        <v>108.455335</v>
       </c>
       <c r="N9">
-        <v>201.249025</v>
+        <v>325.366005</v>
       </c>
       <c r="O9">
-        <v>0.3537306064080358</v>
+        <v>0.3951626014085634</v>
       </c>
       <c r="P9">
-        <v>0.3574672524750558</v>
+        <v>0.3980951384183098</v>
       </c>
       <c r="Q9">
-        <v>2409.809245785636</v>
+        <v>3896.018910468438</v>
       </c>
       <c r="R9">
-        <v>21688.28321207073</v>
+        <v>35064.17019421594</v>
       </c>
       <c r="S9">
-        <v>0.2082227871660713</v>
+        <v>0.2972397609858949</v>
       </c>
       <c r="T9">
-        <v>0.2416878675671954</v>
+        <v>0.324398296200822</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>35.92279633333334</v>
+        <v>35.92279633333333</v>
       </c>
       <c r="H10">
         <v>107.768389</v>
       </c>
       <c r="I10">
-        <v>0.5886479241377319</v>
+        <v>0.7521960831474918</v>
       </c>
       <c r="J10">
-        <v>0.6761119120528684</v>
+        <v>0.8148763069293031</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.947122</v>
+        <v>6.0653095</v>
       </c>
       <c r="N10">
-        <v>11.894244</v>
+        <v>12.130619</v>
       </c>
       <c r="O10">
-        <v>0.03135934305434629</v>
+        <v>0.02209926768810472</v>
       </c>
       <c r="P10">
-        <v>0.02112707240667585</v>
+        <v>0.01484217888683478</v>
       </c>
       <c r="Q10">
-        <v>213.637252375486</v>
+        <v>217.8828778671318</v>
       </c>
       <c r="R10">
-        <v>1281.823514252916</v>
+        <v>1307.297267202791</v>
       </c>
       <c r="S10">
-        <v>0.01845961219126395</v>
+        <v>0.01662298259542029</v>
       </c>
       <c r="T10">
-        <v>0.014284265320957</v>
+        <v>0.012094539918088</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,7 +1089,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>35.92279633333334</v>
+        <v>35.92279633333333</v>
       </c>
       <c r="H11">
         <v>107.768389</v>
       </c>
       <c r="I11">
-        <v>0.5886479241377319</v>
+        <v>0.7521960831474918</v>
       </c>
       <c r="J11">
-        <v>0.6761119120528684</v>
+        <v>0.8148763069293031</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>60.05939466666666</v>
+        <v>104.823008</v>
       </c>
       <c r="N11">
-        <v>180.178184</v>
+        <v>314.469024</v>
       </c>
       <c r="O11">
-        <v>0.3166948922501296</v>
+        <v>0.3819280308225561</v>
       </c>
       <c r="P11">
-        <v>0.3200403102098262</v>
+        <v>0.3847623529002386</v>
       </c>
       <c r="Q11">
-        <v>2157.501402513953</v>
+        <v>3765.535567431371</v>
       </c>
       <c r="R11">
-        <v>19417.51262262558</v>
+        <v>33889.82010688233</v>
       </c>
       <c r="S11">
-        <v>0.1864217909080615</v>
+        <v>0.2872847688289612</v>
       </c>
       <c r="T11">
-        <v>0.2163830660699587</v>
+        <v>0.3135337251767756</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.034729</v>
+        <v>11.020446</v>
       </c>
       <c r="H12">
-        <v>0.104187</v>
+        <v>22.040892</v>
       </c>
       <c r="I12">
-        <v>0.0005690858130220157</v>
+        <v>0.230759772675226</v>
       </c>
       <c r="J12">
-        <v>0.0006536431734267846</v>
+        <v>0.1666592666091317</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>27.68083366666667</v>
+        <v>26.23985166666667</v>
       </c>
       <c r="N12">
-        <v>83.042501</v>
+        <v>78.719555</v>
       </c>
       <c r="O12">
-        <v>0.1459618213622149</v>
+        <v>0.09560625159817936</v>
       </c>
       <c r="P12">
-        <v>0.1475036943464798</v>
+        <v>0.09631575414263932</v>
       </c>
       <c r="Q12">
-        <v>0.9613276724096667</v>
+        <v>289.17486834051</v>
       </c>
       <c r="R12">
-        <v>8.651949051687</v>
+        <v>1735.04921004306</v>
       </c>
       <c r="S12">
-        <v>8.306480178009028E-05</v>
+        <v>0.02206207688512633</v>
       </c>
       <c r="T12">
-        <v>9.641478286480753E-05</v>
+        <v>0.01605191294831771</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.034729</v>
+        <v>11.020446</v>
       </c>
       <c r="H13">
-        <v>0.104187</v>
+        <v>22.040892</v>
       </c>
       <c r="I13">
-        <v>0.0005690858130220157</v>
+        <v>0.230759772675226</v>
       </c>
       <c r="J13">
-        <v>0.0006536431734267846</v>
+        <v>0.1666592666091317</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>86.62195199999999</v>
       </c>
       <c r="O13">
-        <v>0.1522533369252734</v>
+        <v>0.1052038484825964</v>
       </c>
       <c r="P13">
-        <v>0.1538616705619625</v>
+        <v>0.1059845756519775</v>
       </c>
       <c r="Q13">
-        <v>1.002764590336</v>
+        <v>318.2041814768639</v>
       </c>
       <c r="R13">
-        <v>9.024881313023998</v>
+        <v>1909.225088861184</v>
       </c>
       <c r="S13">
-        <v>8.664521402943408E-05</v>
+        <v>0.02427681616040287</v>
       </c>
       <c r="T13">
-        <v>0.0001005706306148677</v>
+        <v>0.01766331165003861</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,25 +1275,25 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.034729</v>
+        <v>11.020446</v>
       </c>
       <c r="H14">
-        <v>0.104187</v>
+        <v>22.040892</v>
       </c>
       <c r="I14">
-        <v>0.0005690858130220157</v>
+        <v>0.230759772675226</v>
       </c>
       <c r="J14">
-        <v>0.0006536431734267846</v>
+        <v>0.1666592666091317</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>67.08300833333332</v>
+        <v>108.455335</v>
       </c>
       <c r="N14">
-        <v>201.249025</v>
+        <v>325.366005</v>
       </c>
       <c r="O14">
-        <v>0.3537306064080358</v>
+        <v>0.3951626014085634</v>
       </c>
       <c r="P14">
-        <v>0.3574672524750558</v>
+        <v>0.3980951384183098</v>
       </c>
       <c r="Q14">
-        <v>2.329725796408333</v>
+        <v>1195.22616277941</v>
       </c>
       <c r="R14">
-        <v>20.967532167675</v>
+        <v>7171.356976676459</v>
       </c>
       <c r="S14">
-        <v>0.0002013030697384877</v>
+        <v>0.09118763207079104</v>
       </c>
       <c r="T14">
-        <v>0.0002336560293039491</v>
+        <v>0.06634624380945629</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,25 +1337,25 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.034729</v>
+        <v>11.020446</v>
       </c>
       <c r="H15">
-        <v>0.104187</v>
+        <v>22.040892</v>
       </c>
       <c r="I15">
-        <v>0.0005690858130220157</v>
+        <v>0.230759772675226</v>
       </c>
       <c r="J15">
-        <v>0.0006536431734267846</v>
+        <v>0.1666592666091317</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.947122</v>
+        <v>6.0653095</v>
       </c>
       <c r="N15">
-        <v>11.894244</v>
+        <v>12.130619</v>
       </c>
       <c r="O15">
-        <v>0.03135934305434629</v>
+        <v>0.02209926768810472</v>
       </c>
       <c r="P15">
-        <v>0.02112707240667585</v>
+        <v>0.01484217888683478</v>
       </c>
       <c r="Q15">
-        <v>0.206537599938</v>
+        <v>66.842415818037</v>
       </c>
       <c r="R15">
-        <v>1.239225599628</v>
+        <v>267.369663272148</v>
       </c>
       <c r="S15">
-        <v>1.784615723791896E-05</v>
+        <v>0.005099621987996013</v>
       </c>
       <c r="T15">
-        <v>1.380956665311706E-05</v>
+        <v>0.002473586648161424</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,25 +1399,25 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.034729</v>
+        <v>11.020446</v>
       </c>
       <c r="H16">
-        <v>0.104187</v>
+        <v>22.040892</v>
       </c>
       <c r="I16">
-        <v>0.0005690858130220157</v>
+        <v>0.230759772675226</v>
       </c>
       <c r="J16">
-        <v>0.0006536431734267846</v>
+        <v>0.1666592666091317</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>60.05939466666666</v>
+        <v>104.823008</v>
       </c>
       <c r="N16">
-        <v>180.178184</v>
+        <v>314.469024</v>
       </c>
       <c r="O16">
-        <v>0.3166948922501296</v>
+        <v>0.3819280308225561</v>
       </c>
       <c r="P16">
-        <v>0.3200403102098262</v>
+        <v>0.3847623529002386</v>
       </c>
       <c r="Q16">
-        <v>2.085802717378666</v>
+        <v>1155.196299221568</v>
       </c>
       <c r="R16">
-        <v>18.772224456408</v>
+        <v>6931.177795329408</v>
       </c>
       <c r="S16">
-        <v>0.0001802265702360847</v>
+        <v>0.08813362557090977</v>
       </c>
       <c r="T16">
-        <v>0.0002091921639900434</v>
+        <v>0.0641242115531577</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,19 +1467,19 @@
         <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>23.6835315</v>
+        <v>0.04913566666666667</v>
       </c>
       <c r="H17">
-        <v>47.367063</v>
+        <v>0.147407</v>
       </c>
       <c r="I17">
-        <v>0.3880895441535899</v>
+        <v>0.001028863556905563</v>
       </c>
       <c r="J17">
-        <v>0.2971691033931914</v>
+        <v>0.001114598379822935</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.68083366666667</v>
+        <v>26.23985166666667</v>
       </c>
       <c r="N17">
-        <v>83.042501</v>
+        <v>78.719555</v>
       </c>
       <c r="O17">
-        <v>0.1459618213622149</v>
+        <v>0.09560625159817936</v>
       </c>
       <c r="P17">
-        <v>0.1475036943464798</v>
+        <v>0.09631575414263932</v>
       </c>
       <c r="Q17">
-        <v>655.5798960907606</v>
+        <v>1.289312604876111</v>
       </c>
       <c r="R17">
-        <v>3933.479376544563</v>
+        <v>11.603813443885</v>
       </c>
       <c r="S17">
-        <v>0.05664625671628969</v>
+        <v>9.836578808171096E-05</v>
       </c>
       <c r="T17">
-        <v>0.04383354059612676</v>
+        <v>0.0001073533835188099</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,19 +1529,19 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>23.6835315</v>
+        <v>0.04913566666666667</v>
       </c>
       <c r="H18">
-        <v>47.367063</v>
+        <v>0.147407</v>
       </c>
       <c r="I18">
-        <v>0.3880895441535899</v>
+        <v>0.001028863556905563</v>
       </c>
       <c r="J18">
-        <v>0.2971691033931914</v>
+        <v>0.001114598379822935</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>86.62195199999999</v>
       </c>
       <c r="O18">
-        <v>0.1522533369252734</v>
+        <v>0.1052038484825964</v>
       </c>
       <c r="P18">
-        <v>0.1538616705619625</v>
+        <v>0.1059845756519775</v>
       </c>
       <c r="Q18">
-        <v>683.837909594496</v>
+        <v>1.418742453162666</v>
       </c>
       <c r="R18">
-        <v>4103.027457566975</v>
+        <v>12.768682078464</v>
       </c>
       <c r="S18">
-        <v>0.05908792812319227</v>
+        <v>0.000108240405749958</v>
       </c>
       <c r="T18">
-        <v>0.045722934687477</v>
+        <v>0.0001181302363079154</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1585,25 +1585,25 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>23.6835315</v>
+        <v>0.04913566666666667</v>
       </c>
       <c r="H19">
-        <v>47.367063</v>
+        <v>0.147407</v>
       </c>
       <c r="I19">
-        <v>0.3880895441535899</v>
+        <v>0.001028863556905563</v>
       </c>
       <c r="J19">
-        <v>0.2971691033931914</v>
+        <v>0.001114598379822935</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>67.08300833333332</v>
+        <v>108.455335</v>
       </c>
       <c r="N19">
-        <v>201.249025</v>
+        <v>325.366005</v>
       </c>
       <c r="O19">
-        <v>0.3537306064080358</v>
+        <v>0.3951626014085634</v>
       </c>
       <c r="P19">
-        <v>0.3574672524750558</v>
+        <v>0.3980951384183098</v>
       </c>
       <c r="Q19">
-        <v>1588.762540977262</v>
+        <v>5.329025188781666</v>
       </c>
       <c r="R19">
-        <v>9532.575245863574</v>
+        <v>47.961226699035</v>
       </c>
       <c r="S19">
-        <v>0.1372791497940675</v>
+        <v>0.0004065683996412696</v>
       </c>
       <c r="T19">
-        <v>0.1062282229104399</v>
+        <v>0.0004437161962964351</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,25 +1647,25 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>23.6835315</v>
+        <v>0.04913566666666667</v>
       </c>
       <c r="H20">
-        <v>47.367063</v>
+        <v>0.147407</v>
       </c>
       <c r="I20">
-        <v>0.3880895441535899</v>
+        <v>0.001028863556905563</v>
       </c>
       <c r="J20">
-        <v>0.2971691033931914</v>
+        <v>0.001114598379822935</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.947122</v>
+        <v>6.0653095</v>
       </c>
       <c r="N20">
-        <v>11.894244</v>
+        <v>12.130619</v>
       </c>
       <c r="O20">
-        <v>0.03135934305434629</v>
+        <v>0.02209926768810472</v>
       </c>
       <c r="P20">
-        <v>0.02112707240667585</v>
+        <v>0.01484217888683478</v>
       </c>
       <c r="Q20">
-        <v>140.848851221343</v>
+        <v>0.2980230258221667</v>
       </c>
       <c r="R20">
-        <v>563.395404885372</v>
+        <v>1.788138154933</v>
       </c>
       <c r="S20">
-        <v>0.0121702331509173</v>
+        <v>2.273713115859159E-05</v>
       </c>
       <c r="T20">
-        <v>0.006278313164414897</v>
+        <v>1.654306854030822E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,25 +1709,25 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>23.6835315</v>
+        <v>0.04913566666666667</v>
       </c>
       <c r="H21">
-        <v>47.367063</v>
+        <v>0.147407</v>
       </c>
       <c r="I21">
-        <v>0.3880895441535899</v>
+        <v>0.001028863556905563</v>
       </c>
       <c r="J21">
-        <v>0.2971691033931914</v>
+        <v>0.001114598379822935</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>60.05939466666666</v>
+        <v>104.823008</v>
       </c>
       <c r="N21">
-        <v>180.178184</v>
+        <v>314.469024</v>
       </c>
       <c r="O21">
-        <v>0.3166948922501296</v>
+        <v>0.3819280308225561</v>
       </c>
       <c r="P21">
-        <v>0.3200403102098262</v>
+        <v>0.3847623529002386</v>
       </c>
       <c r="Q21">
-        <v>1422.418565458932</v>
+        <v>5.150548380085334</v>
       </c>
       <c r="R21">
-        <v>8534.511392753591</v>
+        <v>46.354935420768</v>
       </c>
       <c r="S21">
-        <v>0.1229059763691231</v>
+        <v>0.0003929518322740325</v>
       </c>
       <c r="T21">
-        <v>0.09510609203473289</v>
+        <v>0.0004288554951594662</v>
       </c>
     </row>
   </sheetData>
